--- a/System_List_Example.xlsx
+++ b/System_List_Example.xlsx
@@ -1043,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T147"/>
+  <dimension ref="B1:T152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8906,6 +8906,34 @@
         <v>30029017</v>
       </c>
     </row>
+    <row r="148">
+      <c r="B148" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="n">
+        <v>30029017</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="n">
+        <v>30029017</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="n">
+        <v>30029017</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="n">
+        <v>30029017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/System_List_Example.xlsx
+++ b/System_List_Example.xlsx
@@ -1043,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T152"/>
+  <dimension ref="B1:T168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8934,6 +8934,142 @@
         <v>30029017</v>
       </c>
     </row>
+    <row r="153">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>30029017 / 1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>30029017 / 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>30029017 / 3000</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>30029017 / 4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>30029017 / 5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>30029017 / 6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>30029017 / 49000</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>30029017 / 50000</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>49000</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/System_List_Example.xlsx
+++ b/System_List_Example.xlsx
@@ -1043,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T168"/>
+  <dimension ref="B1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9070,6 +9070,136 @@
         </is>
       </c>
     </row>
+    <row r="169">
+      <c r="B169" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>49000</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/System_List_Example.xlsx
+++ b/System_List_Example.xlsx
@@ -1043,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T181"/>
+  <dimension ref="B1:T186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9200,6 +9200,81 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="B182" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/System_List_Example.xlsx
+++ b/System_List_Example.xlsx
@@ -1043,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T186"/>
+  <dimension ref="B1:T196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9275,6 +9275,206 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="B187" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>ESC System Controller</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>ESC System Controller</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>ESC System Controller</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>ESC System Controller</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ESC System Controller</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/System_List_Example.xlsx
+++ b/System_List_Example.xlsx
@@ -1043,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T196"/>
+  <dimension ref="B1:T211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9475,6 +9475,456 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="B197" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/System_List_Example.xlsx
+++ b/System_List_Example.xlsx
@@ -96,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -211,11 +211,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -356,6 +362,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,7 +1068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T211"/>
+  <dimension ref="B1:T226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1189,7 +1214,7 @@
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="n"/>
       <c r="K2" s="8" t="n"/>
-      <c r="L2" s="8" t="n"/>
+      <c r="L2" s="58" t="n"/>
       <c r="M2" s="9" t="n"/>
       <c r="N2" s="10" t="inlineStr">
         <is>
@@ -1238,7 +1263,7 @@
         </is>
       </c>
       <c r="K3" s="8" t="n"/>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" s="58" t="inlineStr">
         <is>
           <t>MQTT, OPC UA, IBM MQ</t>
         </is>
@@ -1291,7 +1316,7 @@
         </is>
       </c>
       <c r="K4" s="8" t="n"/>
-      <c r="L4" s="8" t="inlineStr">
+      <c r="L4" s="58" t="inlineStr">
         <is>
           <t>MQTT, OPC UA, RFC1006</t>
         </is>
@@ -1344,7 +1369,7 @@
         </is>
       </c>
       <c r="K5" s="8" t="n"/>
-      <c r="L5" s="8" t="inlineStr">
+      <c r="L5" s="58" t="inlineStr">
         <is>
           <t>MQTT, OPC UA, IBM MQ</t>
         </is>
@@ -1397,7 +1422,7 @@
         </is>
       </c>
       <c r="K6" s="8" t="n"/>
-      <c r="L6" s="8" t="inlineStr">
+      <c r="L6" s="58" t="inlineStr">
         <is>
           <t>MQTT, OPC UA, IBM MQ</t>
         </is>
@@ -1450,7 +1475,7 @@
         </is>
       </c>
       <c r="K7" s="8" t="n"/>
-      <c r="L7" s="8" t="inlineStr">
+      <c r="L7" s="58" t="inlineStr">
         <is>
           <t>MQTT, OPC UA, RFC1006</t>
         </is>
@@ -1503,7 +1528,7 @@
         </is>
       </c>
       <c r="K8" s="8" t="n"/>
-      <c r="L8" s="8" t="inlineStr">
+      <c r="L8" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -1540,7 +1565,7 @@
       <c r="I9" s="6" t="n"/>
       <c r="J9" s="6" t="n"/>
       <c r="K9" s="15" t="n"/>
-      <c r="L9" s="15" t="n"/>
+      <c r="L9" s="59" t="n"/>
       <c r="M9" s="16" t="n"/>
       <c r="N9" s="17" t="n"/>
       <c r="O9" s="16" t="n"/>
@@ -1573,7 +1598,7 @@
       </c>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="8" t="n"/>
-      <c r="L10" s="8" t="n"/>
+      <c r="L10" s="58" t="n"/>
       <c r="M10" s="9" t="n"/>
       <c r="N10" s="10" t="inlineStr">
         <is>
@@ -1614,7 +1639,7 @@
       </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
+      <c r="L11" s="58" t="n"/>
       <c r="M11" s="9" t="n"/>
       <c r="N11" s="10" t="inlineStr">
         <is>
@@ -1655,7 +1680,7 @@
       </c>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="8" t="n"/>
-      <c r="L12" s="8" t="n"/>
+      <c r="L12" s="58" t="n"/>
       <c r="M12" s="9" t="n"/>
       <c r="N12" s="10" t="inlineStr">
         <is>
@@ -1696,7 +1721,7 @@
       </c>
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="8" t="n"/>
-      <c r="L13" s="8" t="n"/>
+      <c r="L13" s="58" t="n"/>
       <c r="M13" s="9" t="n"/>
       <c r="N13" s="10" t="inlineStr">
         <is>
@@ -1737,7 +1762,7 @@
       </c>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="8" t="n"/>
-      <c r="L14" s="8" t="n"/>
+      <c r="L14" s="58" t="n"/>
       <c r="M14" s="9" t="n"/>
       <c r="N14" s="10" t="inlineStr">
         <is>
@@ -1778,7 +1803,7 @@
       </c>
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="8" t="n"/>
-      <c r="L15" s="8" t="n"/>
+      <c r="L15" s="58" t="n"/>
       <c r="M15" s="9" t="n"/>
       <c r="N15" s="10" t="inlineStr">
         <is>
@@ -1819,7 +1844,7 @@
       </c>
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="8" t="n"/>
-      <c r="L16" s="8" t="n"/>
+      <c r="L16" s="58" t="n"/>
       <c r="M16" s="9" t="n"/>
       <c r="N16" s="10" t="inlineStr">
         <is>
@@ -1868,7 +1893,7 @@
           <t>4.00.33</t>
         </is>
       </c>
-      <c r="L17" s="8" t="inlineStr">
+      <c r="L17" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -1929,7 +1954,7 @@
           <t>4.00.33</t>
         </is>
       </c>
-      <c r="L18" s="8" t="inlineStr">
+      <c r="L18" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -1992,7 +2017,7 @@
       </c>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="8" t="n"/>
-      <c r="L19" s="8" t="n"/>
+      <c r="L19" s="58" t="n"/>
       <c r="M19" s="9" t="n"/>
       <c r="N19" s="10" t="inlineStr">
         <is>
@@ -2033,7 +2058,7 @@
       </c>
       <c r="J20" s="1" t="n"/>
       <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
+      <c r="L20" s="58" t="n"/>
       <c r="M20" s="9" t="n"/>
       <c r="N20" s="10" t="inlineStr">
         <is>
@@ -2074,7 +2099,7 @@
       </c>
       <c r="J21" s="1" t="n"/>
       <c r="K21" s="8" t="n"/>
-      <c r="L21" s="8" t="n"/>
+      <c r="L21" s="58" t="n"/>
       <c r="M21" s="9" t="n"/>
       <c r="N21" s="10" t="inlineStr">
         <is>
@@ -2115,7 +2140,7 @@
       </c>
       <c r="J22" s="1" t="n"/>
       <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
+      <c r="L22" s="58" t="n"/>
       <c r="M22" s="9" t="n"/>
       <c r="N22" s="10" t="inlineStr">
         <is>
@@ -2156,7 +2181,7 @@
       </c>
       <c r="J23" s="1" t="n"/>
       <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
+      <c r="L23" s="58" t="n"/>
       <c r="M23" s="9" t="n"/>
       <c r="N23" s="10" t="inlineStr">
         <is>
@@ -2197,7 +2222,7 @@
       </c>
       <c r="J24" s="1" t="n"/>
       <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
+      <c r="L24" s="58" t="n"/>
       <c r="M24" s="9" t="n"/>
       <c r="N24" s="10" t="inlineStr">
         <is>
@@ -2238,7 +2263,7 @@
       </c>
       <c r="J25" s="1" t="n"/>
       <c r="K25" s="8" t="n"/>
-      <c r="L25" s="8" t="n"/>
+      <c r="L25" s="58" t="n"/>
       <c r="M25" s="9" t="n"/>
       <c r="N25" s="10" t="inlineStr">
         <is>
@@ -2275,7 +2300,7 @@
       </c>
       <c r="J26" s="1" t="n"/>
       <c r="K26" s="8" t="n"/>
-      <c r="L26" s="8" t="n"/>
+      <c r="L26" s="58" t="n"/>
       <c r="M26" s="9" t="n"/>
       <c r="N26" s="10" t="inlineStr">
         <is>
@@ -2316,7 +2341,7 @@
       </c>
       <c r="J27" s="1" t="n"/>
       <c r="K27" s="8" t="n"/>
-      <c r="L27" s="8" t="n"/>
+      <c r="L27" s="58" t="n"/>
       <c r="M27" s="9" t="n"/>
       <c r="N27" s="10" t="inlineStr">
         <is>
@@ -2357,7 +2382,7 @@
       </c>
       <c r="J28" s="1" t="n"/>
       <c r="K28" s="8" t="n"/>
-      <c r="L28" s="8" t="n"/>
+      <c r="L28" s="58" t="n"/>
       <c r="M28" s="9" t="n"/>
       <c r="N28" s="10" t="inlineStr">
         <is>
@@ -2398,7 +2423,7 @@
       </c>
       <c r="J29" s="1" t="n"/>
       <c r="K29" s="8" t="n"/>
-      <c r="L29" s="8" t="n"/>
+      <c r="L29" s="58" t="n"/>
       <c r="M29" s="9" t="n"/>
       <c r="N29" s="10" t="inlineStr">
         <is>
@@ -2435,7 +2460,7 @@
       </c>
       <c r="J30" s="1" t="n"/>
       <c r="K30" s="8" t="n"/>
-      <c r="L30" s="8" t="n"/>
+      <c r="L30" s="58" t="n"/>
       <c r="M30" s="9" t="n"/>
       <c r="N30" s="10" t="inlineStr">
         <is>
@@ -2476,7 +2501,7 @@
       </c>
       <c r="J31" s="1" t="n"/>
       <c r="K31" s="8" t="n"/>
-      <c r="L31" s="8" t="n"/>
+      <c r="L31" s="58" t="n"/>
       <c r="M31" s="9" t="n"/>
       <c r="N31" s="10" t="inlineStr">
         <is>
@@ -2513,7 +2538,7 @@
       </c>
       <c r="J32" s="1" t="n"/>
       <c r="K32" s="8" t="n"/>
-      <c r="L32" s="8" t="n"/>
+      <c r="L32" s="58" t="n"/>
       <c r="M32" s="9" t="n"/>
       <c r="N32" s="10" t="inlineStr">
         <is>
@@ -2554,7 +2579,7 @@
       </c>
       <c r="J33" s="1" t="n"/>
       <c r="K33" s="8" t="n"/>
-      <c r="L33" s="8" t="n"/>
+      <c r="L33" s="58" t="n"/>
       <c r="M33" s="9" t="n"/>
       <c r="N33" s="10" t="inlineStr">
         <is>
@@ -2579,7 +2604,7 @@
       <c r="I34" s="6" t="n"/>
       <c r="J34" s="6" t="n"/>
       <c r="K34" s="15" t="n"/>
-      <c r="L34" s="15" t="n"/>
+      <c r="L34" s="59" t="n"/>
       <c r="M34" s="16" t="n"/>
       <c r="N34" s="17" t="n"/>
       <c r="O34" s="16" t="n"/>
@@ -2616,7 +2641,7 @@
         </is>
       </c>
       <c r="K35" s="8" t="n"/>
-      <c r="L35" s="8" t="inlineStr">
+      <c r="L35" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -2683,7 +2708,7 @@
         </is>
       </c>
       <c r="K36" s="8" t="n"/>
-      <c r="L36" s="8" t="inlineStr">
+      <c r="L36" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -2750,7 +2775,7 @@
         </is>
       </c>
       <c r="K37" s="8" t="n"/>
-      <c r="L37" s="8" t="inlineStr">
+      <c r="L37" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -2817,7 +2842,7 @@
         </is>
       </c>
       <c r="K38" s="8" t="n"/>
-      <c r="L38" s="8" t="inlineStr">
+      <c r="L38" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -2884,7 +2909,7 @@
         </is>
       </c>
       <c r="K39" s="8" t="n"/>
-      <c r="L39" s="8" t="inlineStr">
+      <c r="L39" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -2951,7 +2976,7 @@
         </is>
       </c>
       <c r="K40" s="8" t="n"/>
-      <c r="L40" s="8" t="inlineStr">
+      <c r="L40" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -3018,7 +3043,7 @@
         </is>
       </c>
       <c r="K41" s="8" t="n"/>
-      <c r="L41" s="8" t="inlineStr">
+      <c r="L41" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -3085,7 +3110,7 @@
         </is>
       </c>
       <c r="K42" s="8" t="n"/>
-      <c r="L42" s="8" t="inlineStr">
+      <c r="L42" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -3152,7 +3177,7 @@
         </is>
       </c>
       <c r="K43" s="8" t="n"/>
-      <c r="L43" s="8" t="inlineStr">
+      <c r="L43" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -3219,7 +3244,7 @@
         </is>
       </c>
       <c r="K44" s="8" t="n"/>
-      <c r="L44" s="8" t="inlineStr">
+      <c r="L44" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -3290,7 +3315,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L45" s="8" t="inlineStr">
+      <c r="L45" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -3361,7 +3386,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L46" s="8" t="inlineStr">
+      <c r="L46" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -3412,7 +3437,7 @@
       <c r="I47" s="6" t="n"/>
       <c r="J47" s="6" t="n"/>
       <c r="K47" s="15" t="n"/>
-      <c r="L47" s="15" t="n"/>
+      <c r="L47" s="59" t="n"/>
       <c r="M47" s="16" t="n"/>
       <c r="N47" s="17" t="n"/>
       <c r="O47" s="16" t="n"/>
@@ -3445,7 +3470,7 @@
       </c>
       <c r="J48" s="1" t="n"/>
       <c r="K48" s="8" t="n"/>
-      <c r="L48" s="8" t="n"/>
+      <c r="L48" s="58" t="n"/>
       <c r="M48" s="9" t="n"/>
       <c r="N48" s="10" t="inlineStr">
         <is>
@@ -3474,7 +3499,7 @@
       <c r="I49" s="6" t="n"/>
       <c r="J49" s="6" t="n"/>
       <c r="K49" s="15" t="n"/>
-      <c r="L49" s="15" t="n"/>
+      <c r="L49" s="59" t="n"/>
       <c r="M49" s="16" t="n"/>
       <c r="N49" s="17" t="n"/>
       <c r="O49" s="16" t="n"/>
@@ -3495,7 +3520,7 @@
       <c r="I50" s="1" t="n"/>
       <c r="J50" s="1" t="n"/>
       <c r="K50" s="8" t="n"/>
-      <c r="L50" s="8" t="n"/>
+      <c r="L50" s="58" t="n"/>
       <c r="M50" s="9" t="n"/>
       <c r="N50" s="10" t="inlineStr">
         <is>
@@ -3528,7 +3553,7 @@
       <c r="I51" s="1" t="n"/>
       <c r="J51" s="1" t="n"/>
       <c r="K51" s="8" t="n"/>
-      <c r="L51" s="8" t="n"/>
+      <c r="L51" s="58" t="n"/>
       <c r="M51" s="9" t="n"/>
       <c r="N51" s="10" t="inlineStr">
         <is>
@@ -3561,7 +3586,7 @@
       <c r="I52" s="6" t="n"/>
       <c r="J52" s="6" t="n"/>
       <c r="K52" s="15" t="n"/>
-      <c r="L52" s="15" t="n"/>
+      <c r="L52" s="59" t="n"/>
       <c r="M52" s="16" t="n"/>
       <c r="N52" s="17" t="n"/>
       <c r="O52" s="16" t="n"/>
@@ -3590,7 +3615,7 @@
       <c r="I53" s="1" t="n"/>
       <c r="J53" s="1" t="n"/>
       <c r="K53" s="8" t="n"/>
-      <c r="L53" s="8" t="n"/>
+      <c r="L53" s="58" t="n"/>
       <c r="M53" s="9" t="n"/>
       <c r="N53" s="10" t="inlineStr">
         <is>
@@ -3627,7 +3652,7 @@
       <c r="I54" s="1" t="n"/>
       <c r="J54" s="1" t="n"/>
       <c r="K54" s="8" t="n"/>
-      <c r="L54" s="8" t="n"/>
+      <c r="L54" s="58" t="n"/>
       <c r="M54" s="9" t="n"/>
       <c r="N54" s="10" t="inlineStr">
         <is>
@@ -3660,7 +3685,7 @@
       <c r="I55" s="29" t="n"/>
       <c r="J55" s="29" t="n"/>
       <c r="K55" s="29" t="n"/>
-      <c r="L55" s="29" t="n"/>
+      <c r="L55" s="58" t="n"/>
       <c r="M55" s="29" t="n"/>
       <c r="N55" s="29" t="n"/>
       <c r="O55" s="29" t="n"/>
@@ -3711,7 +3736,7 @@
           <t>v4.00.30</t>
         </is>
       </c>
-      <c r="L56" s="8" t="inlineStr">
+      <c r="L56" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -3748,7 +3773,7 @@
       <c r="I57" s="29" t="n"/>
       <c r="J57" s="29" t="n"/>
       <c r="K57" s="29" t="n"/>
-      <c r="L57" s="29" t="n"/>
+      <c r="L57" s="58" t="n"/>
       <c r="M57" s="29" t="n"/>
       <c r="N57" s="29" t="n"/>
       <c r="O57" s="29" t="n"/>
@@ -3797,7 +3822,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L58" s="8" t="inlineStr">
+      <c r="L58" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -3862,7 +3887,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L59" s="8" t="inlineStr">
+      <c r="L59" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -3927,7 +3952,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L60" s="8" t="inlineStr">
+      <c r="L60" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -3992,7 +4017,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L61" s="8" t="inlineStr">
+      <c r="L61" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4057,7 +4082,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L62" s="8" t="inlineStr">
+      <c r="L62" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4122,7 +4147,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L63" s="8" t="inlineStr">
+      <c r="L63" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4187,7 +4212,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L64" s="8" t="inlineStr">
+      <c r="L64" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4252,7 +4277,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L65" s="8" t="inlineStr">
+      <c r="L65" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4317,7 +4342,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L66" s="8" t="inlineStr">
+      <c r="L66" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4382,7 +4407,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L67" s="8" t="inlineStr">
+      <c r="L67" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4423,7 +4448,7 @@
       <c r="I68" s="29" t="n"/>
       <c r="J68" s="29" t="n"/>
       <c r="K68" s="29" t="n"/>
-      <c r="L68" s="29" t="n"/>
+      <c r="L68" s="58" t="n"/>
       <c r="M68" s="29" t="n"/>
       <c r="N68" s="29" t="n"/>
       <c r="O68" s="29" t="n"/>
@@ -4472,7 +4497,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L69" s="8" t="inlineStr">
+      <c r="L69" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4529,7 +4554,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L70" s="8" t="inlineStr">
+      <c r="L70" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4586,7 +4611,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L71" s="8" t="inlineStr">
+      <c r="L71" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4643,7 +4668,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L72" s="8" t="inlineStr">
+      <c r="L72" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4700,7 +4725,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L73" s="8" t="inlineStr">
+      <c r="L73" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4757,7 +4782,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L74" s="8" t="inlineStr">
+      <c r="L74" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4814,7 +4839,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L75" s="8" t="inlineStr">
+      <c r="L75" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4847,7 +4872,7 @@
       <c r="I76" s="29" t="n"/>
       <c r="J76" s="29" t="n"/>
       <c r="K76" s="29" t="n"/>
-      <c r="L76" s="29" t="n"/>
+      <c r="L76" s="58" t="n"/>
       <c r="M76" s="29" t="n"/>
       <c r="N76" s="29" t="n"/>
       <c r="O76" s="29" t="n"/>
@@ -4896,7 +4921,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L77" s="8" t="inlineStr">
+      <c r="L77" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4953,7 +4978,7 @@
           <t>?</t>
         </is>
       </c>
-      <c r="L78" s="8" t="inlineStr">
+      <c r="L78" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -4986,7 +5011,7 @@
       <c r="I79" s="29" t="n"/>
       <c r="J79" s="29" t="n"/>
       <c r="K79" s="29" t="n"/>
-      <c r="L79" s="29" t="n"/>
+      <c r="L79" s="58" t="n"/>
       <c r="M79" s="29" t="n"/>
       <c r="N79" s="29" t="n"/>
       <c r="O79" s="29" t="n"/>
@@ -5027,7 +5052,7 @@
         </is>
       </c>
       <c r="K80" s="8" t="n"/>
-      <c r="L80" s="8" t="inlineStr">
+      <c r="L80" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5100,7 +5125,7 @@
         </is>
       </c>
       <c r="K81" s="8" t="n"/>
-      <c r="L81" s="8" t="inlineStr">
+      <c r="L81" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5181,7 +5206,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L82" s="8" t="inlineStr">
+      <c r="L82" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5250,7 +5275,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L83" s="8" t="inlineStr">
+      <c r="L83" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5319,7 +5344,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L84" s="8" t="inlineStr">
+      <c r="L84" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5388,7 +5413,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L85" s="8" t="inlineStr">
+      <c r="L85" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5457,7 +5482,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L86" s="8" t="inlineStr">
+      <c r="L86" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5526,7 +5551,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L87" s="8" t="inlineStr">
+      <c r="L87" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5595,7 +5620,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L88" s="8" t="inlineStr">
+      <c r="L88" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5664,7 +5689,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L89" s="8" t="inlineStr">
+      <c r="L89" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5733,7 +5758,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L90" s="8" t="inlineStr">
+      <c r="L90" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5802,7 +5827,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L91" s="8" t="inlineStr">
+      <c r="L91" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5871,7 +5896,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L92" s="8" t="inlineStr">
+      <c r="L92" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -5916,7 +5941,7 @@
       <c r="I93" s="29" t="n"/>
       <c r="J93" s="29" t="n"/>
       <c r="K93" s="29" t="n"/>
-      <c r="L93" s="29" t="n"/>
+      <c r="L93" s="58" t="n"/>
       <c r="M93" s="29" t="n"/>
       <c r="N93" s="29" t="n"/>
       <c r="O93" s="29" t="n"/>
@@ -5959,7 +5984,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L94" s="8" t="inlineStr">
+      <c r="L94" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -6034,7 +6059,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L95" s="8" t="inlineStr">
+      <c r="L95" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -6107,7 +6132,7 @@
           <t>4.00.31</t>
         </is>
       </c>
-      <c r="L96" s="8" t="inlineStr">
+      <c r="L96" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -6160,7 +6185,7 @@
       <c r="I97" s="29" t="n"/>
       <c r="J97" s="29" t="n"/>
       <c r="K97" s="29" t="n"/>
-      <c r="L97" s="29" t="n"/>
+      <c r="L97" s="58" t="n"/>
       <c r="M97" s="29" t="n"/>
       <c r="N97" s="29" t="n"/>
       <c r="O97" s="29" t="n"/>
@@ -6209,7 +6234,7 @@
           <t>4.00.32</t>
         </is>
       </c>
-      <c r="L98" s="8" t="inlineStr">
+      <c r="L98" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -6288,7 +6313,7 @@
           <t>4.00.32</t>
         </is>
       </c>
-      <c r="L99" s="8" t="inlineStr">
+      <c r="L99" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -6367,7 +6392,7 @@
           <t>4.00.32</t>
         </is>
       </c>
-      <c r="L100" s="8" t="inlineStr">
+      <c r="L100" s="58" t="inlineStr">
         <is>
           <t>OPC UA</t>
         </is>
@@ -6420,7 +6445,7 @@
       <c r="I101" s="29" t="n"/>
       <c r="J101" s="29" t="n"/>
       <c r="K101" s="29" t="n"/>
-      <c r="L101" s="29" t="n"/>
+      <c r="L101" s="58" t="n"/>
       <c r="M101" s="29" t="n"/>
       <c r="N101" s="29" t="n"/>
       <c r="O101" s="29" t="n"/>
@@ -6465,7 +6490,7 @@
         </is>
       </c>
       <c r="K102" s="19" t="n"/>
-      <c r="L102" s="8" t="inlineStr">
+      <c r="L102" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -6540,7 +6565,7 @@
         </is>
       </c>
       <c r="K103" s="19" t="n"/>
-      <c r="L103" s="8" t="inlineStr">
+      <c r="L103" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -6605,7 +6630,7 @@
         </is>
       </c>
       <c r="K104" s="19" t="n"/>
-      <c r="L104" s="8" t="inlineStr">
+      <c r="L104" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -6670,7 +6695,7 @@
         </is>
       </c>
       <c r="K105" s="19" t="n"/>
-      <c r="L105" s="8" t="inlineStr">
+      <c r="L105" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -6735,7 +6760,7 @@
         </is>
       </c>
       <c r="K106" s="19" t="n"/>
-      <c r="L106" s="8" t="inlineStr">
+      <c r="L106" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -6800,7 +6825,7 @@
         </is>
       </c>
       <c r="K107" s="19" t="n"/>
-      <c r="L107" s="8" t="inlineStr">
+      <c r="L107" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -6865,7 +6890,7 @@
         </is>
       </c>
       <c r="K108" s="19" t="n"/>
-      <c r="L108" s="8" t="inlineStr">
+      <c r="L108" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -6930,7 +6955,7 @@
         </is>
       </c>
       <c r="K109" s="19" t="n"/>
-      <c r="L109" s="8" t="inlineStr">
+      <c r="L109" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -6995,7 +7020,7 @@
         </is>
       </c>
       <c r="K110" s="19" t="n"/>
-      <c r="L110" s="8" t="inlineStr">
+      <c r="L110" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7060,7 +7085,7 @@
         </is>
       </c>
       <c r="K111" s="19" t="n"/>
-      <c r="L111" s="8" t="inlineStr">
+      <c r="L111" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7125,7 +7150,7 @@
         </is>
       </c>
       <c r="K112" s="19" t="n"/>
-      <c r="L112" s="8" t="inlineStr">
+      <c r="L112" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7190,7 +7215,7 @@
         </is>
       </c>
       <c r="K113" s="19" t="n"/>
-      <c r="L113" s="8" t="inlineStr">
+      <c r="L113" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7255,7 +7280,7 @@
         </is>
       </c>
       <c r="K114" s="19" t="n"/>
-      <c r="L114" s="8" t="inlineStr">
+      <c r="L114" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7320,7 +7345,7 @@
         </is>
       </c>
       <c r="K115" s="19" t="n"/>
-      <c r="L115" s="8" t="inlineStr">
+      <c r="L115" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7385,7 +7410,7 @@
         </is>
       </c>
       <c r="K116" s="19" t="n"/>
-      <c r="L116" s="8" t="inlineStr">
+      <c r="L116" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7450,7 +7475,7 @@
         </is>
       </c>
       <c r="K117" s="19" t="n"/>
-      <c r="L117" s="8" t="inlineStr">
+      <c r="L117" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7515,7 +7540,7 @@
         </is>
       </c>
       <c r="K118" s="19" t="n"/>
-      <c r="L118" s="8" t="inlineStr">
+      <c r="L118" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7580,7 +7605,7 @@
         </is>
       </c>
       <c r="K119" s="19" t="n"/>
-      <c r="L119" s="8" t="inlineStr">
+      <c r="L119" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7645,7 +7670,7 @@
         </is>
       </c>
       <c r="K120" s="19" t="n"/>
-      <c r="L120" s="8" t="inlineStr">
+      <c r="L120" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7710,7 +7735,7 @@
         </is>
       </c>
       <c r="K121" s="19" t="n"/>
-      <c r="L121" s="8" t="inlineStr">
+      <c r="L121" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7775,7 +7800,7 @@
         </is>
       </c>
       <c r="K122" s="19" t="n"/>
-      <c r="L122" s="8" t="inlineStr">
+      <c r="L122" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7840,7 +7865,7 @@
         </is>
       </c>
       <c r="K123" s="19" t="n"/>
-      <c r="L123" s="8" t="inlineStr">
+      <c r="L123" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7905,7 +7930,7 @@
         </is>
       </c>
       <c r="K124" s="19" t="n"/>
-      <c r="L124" s="8" t="inlineStr">
+      <c r="L124" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -7970,7 +7995,7 @@
         </is>
       </c>
       <c r="K125" s="19" t="n"/>
-      <c r="L125" s="8" t="inlineStr">
+      <c r="L125" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8035,7 +8060,7 @@
         </is>
       </c>
       <c r="K126" s="19" t="n"/>
-      <c r="L126" s="8" t="inlineStr">
+      <c r="L126" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8100,7 +8125,7 @@
         </is>
       </c>
       <c r="K127" s="19" t="n"/>
-      <c r="L127" s="8" t="inlineStr">
+      <c r="L127" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8165,7 +8190,7 @@
         </is>
       </c>
       <c r="K128" s="19" t="n"/>
-      <c r="L128" s="8" t="inlineStr">
+      <c r="L128" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8230,7 +8255,7 @@
         </is>
       </c>
       <c r="K129" s="19" t="n"/>
-      <c r="L129" s="8" t="inlineStr">
+      <c r="L129" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8295,7 +8320,7 @@
         </is>
       </c>
       <c r="K130" s="19" t="n"/>
-      <c r="L130" s="8" t="inlineStr">
+      <c r="L130" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8340,7 +8365,7 @@
       <c r="I131" s="29" t="n"/>
       <c r="J131" s="29" t="n"/>
       <c r="K131" s="29" t="n"/>
-      <c r="L131" s="29" t="n"/>
+      <c r="L131" s="58" t="n"/>
       <c r="M131" s="29" t="n"/>
       <c r="N131" s="29" t="n"/>
       <c r="O131" s="29" t="n"/>
@@ -8379,7 +8404,7 @@
         </is>
       </c>
       <c r="K132" s="8" t="n"/>
-      <c r="L132" s="8" t="inlineStr">
+      <c r="L132" s="58" t="inlineStr">
         <is>
           <t>OPC-UA</t>
         </is>
@@ -8430,7 +8455,7 @@
       <c r="I133" s="41" t="n"/>
       <c r="J133" s="41" t="n"/>
       <c r="K133" s="42" t="n"/>
-      <c r="L133" s="43" t="n"/>
+      <c r="L133" s="58" t="n"/>
       <c r="M133" s="44" t="n"/>
       <c r="N133" s="45" t="n"/>
       <c r="O133" s="46" t="n"/>
@@ -8471,7 +8496,7 @@
           <t>3.9.13</t>
         </is>
       </c>
-      <c r="L134" s="51" t="inlineStr">
+      <c r="L134" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8536,7 +8561,7 @@
           <t>3.9.13</t>
         </is>
       </c>
-      <c r="L135" s="51" t="inlineStr">
+      <c r="L135" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8601,7 +8626,7 @@
           <t>3.9.13</t>
         </is>
       </c>
-      <c r="L136" s="51" t="inlineStr">
+      <c r="L136" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8666,7 +8691,7 @@
           <t>3.9.13</t>
         </is>
       </c>
-      <c r="L137" s="51" t="inlineStr">
+      <c r="L137" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8731,7 +8756,7 @@
           <t>3.9.13</t>
         </is>
       </c>
-      <c r="L138" s="51" t="inlineStr">
+      <c r="L138" s="58" t="inlineStr">
         <is>
           <t>MQTT</t>
         </is>
@@ -8776,7 +8801,7 @@
       <c r="I139" s="41" t="n"/>
       <c r="J139" s="41" t="n"/>
       <c r="K139" s="43" t="n"/>
-      <c r="L139" s="43" t="n"/>
+      <c r="L139" s="58" t="n"/>
       <c r="M139" s="44" t="n"/>
       <c r="N139" s="48" t="n"/>
       <c r="O139" s="44" t="n"/>
@@ -8797,7 +8822,7 @@
       <c r="I140" s="1" t="n"/>
       <c r="J140" s="1" t="n"/>
       <c r="K140" s="8" t="n"/>
-      <c r="L140" s="8" t="n"/>
+      <c r="L140" s="58" t="n"/>
       <c r="M140" s="9" t="n"/>
       <c r="N140" s="26" t="n"/>
       <c r="O140" s="9" t="n"/>
@@ -8818,7 +8843,7 @@
       <c r="I141" s="1" t="n"/>
       <c r="J141" s="1" t="n"/>
       <c r="K141" s="8" t="n"/>
-      <c r="L141" s="8" t="n"/>
+      <c r="L141" s="58" t="n"/>
       <c r="M141" s="9" t="n"/>
       <c r="N141" s="26" t="n"/>
       <c r="O141" s="9" t="n"/>
@@ -8839,7 +8864,7 @@
       <c r="I142" s="1" t="n"/>
       <c r="J142" s="1" t="n"/>
       <c r="K142" s="8" t="n"/>
-      <c r="L142" s="8" t="n"/>
+      <c r="L142" s="58" t="n"/>
       <c r="M142" s="9" t="n"/>
       <c r="N142" s="26" t="n"/>
       <c r="O142" s="9" t="n"/>
@@ -8860,7 +8885,7 @@
       <c r="I143" s="1" t="n"/>
       <c r="J143" s="1" t="n"/>
       <c r="K143" s="8" t="n"/>
-      <c r="L143" s="8" t="n"/>
+      <c r="L143" s="58" t="n"/>
       <c r="M143" s="9" t="n"/>
       <c r="N143" s="26" t="n"/>
       <c r="O143" s="9" t="n"/>
@@ -8881,7 +8906,7 @@
       <c r="I144" s="1" t="n"/>
       <c r="J144" s="1" t="n"/>
       <c r="K144" s="8" t="n"/>
-      <c r="L144" s="8" t="n"/>
+      <c r="L144" s="58" t="n"/>
       <c r="M144" s="9" t="n"/>
       <c r="N144" s="26" t="n"/>
       <c r="O144" s="9" t="n"/>
@@ -8895,16 +8920,19 @@
       <c r="F145" t="n">
         <v>30029017</v>
       </c>
+      <c r="L145" s="58" t="n"/>
     </row>
     <row r="146">
       <c r="F146" t="n">
         <v>30029017</v>
       </c>
+      <c r="L146" s="58" t="n"/>
     </row>
     <row r="147">
       <c r="B147" t="n">
         <v>30029017</v>
       </c>
+      <c r="L147" s="58" t="n"/>
     </row>
     <row r="148">
       <c r="B148" t="n">
@@ -8913,26 +8941,31 @@
       <c r="D148" t="n">
         <v>0</v>
       </c>
+      <c r="L148" s="58" t="n"/>
     </row>
     <row r="149">
       <c r="B149" t="n">
         <v>30029017</v>
       </c>
+      <c r="L149" s="58" t="n"/>
     </row>
     <row r="150">
       <c r="B150" t="n">
         <v>30029017</v>
       </c>
+      <c r="L150" s="58" t="n"/>
     </row>
     <row r="151">
       <c r="B151" t="n">
         <v>30029017</v>
       </c>
+      <c r="L151" s="58" t="n"/>
     </row>
     <row r="152">
       <c r="B152" t="n">
         <v>30029017</v>
       </c>
+      <c r="L152" s="58" t="n"/>
     </row>
     <row r="153">
       <c r="C153" t="inlineStr">
@@ -8940,6 +8973,7 @@
           <t>30029017 / 1000</t>
         </is>
       </c>
+      <c r="L153" s="58" t="n"/>
     </row>
     <row r="154">
       <c r="C154" t="inlineStr">
@@ -8947,6 +8981,7 @@
           <t>30029017 / 2000</t>
         </is>
       </c>
+      <c r="L154" s="58" t="n"/>
     </row>
     <row r="155">
       <c r="C155" t="inlineStr">
@@ -8954,6 +8989,7 @@
           <t>30029017 / 3000</t>
         </is>
       </c>
+      <c r="L155" s="58" t="n"/>
     </row>
     <row r="156">
       <c r="C156" t="inlineStr">
@@ -8961,6 +8997,7 @@
           <t>30029017 / 4000</t>
         </is>
       </c>
+      <c r="L156" s="58" t="n"/>
     </row>
     <row r="157">
       <c r="C157" t="inlineStr">
@@ -8968,6 +9005,7 @@
           <t>30029017 / 5000</t>
         </is>
       </c>
+      <c r="L157" s="58" t="n"/>
     </row>
     <row r="158">
       <c r="C158" t="inlineStr">
@@ -8975,6 +9013,7 @@
           <t>30029017 / 6000</t>
         </is>
       </c>
+      <c r="L158" s="58" t="n"/>
     </row>
     <row r="159">
       <c r="C159" t="inlineStr">
@@ -8982,6 +9021,7 @@
           <t>30029017 / 49000</t>
         </is>
       </c>
+      <c r="L159" s="58" t="n"/>
     </row>
     <row r="160">
       <c r="C160" t="inlineStr">
@@ -8989,6 +9029,7 @@
           <t>30029017 / 50000</t>
         </is>
       </c>
+      <c r="L160" s="58" t="n"/>
     </row>
     <row r="161">
       <c r="B161" t="n">
@@ -8999,6 +9040,7 @@
           <t>1000</t>
         </is>
       </c>
+      <c r="L161" s="58" t="n"/>
     </row>
     <row r="162">
       <c r="B162" t="n">
@@ -9009,6 +9051,7 @@
           <t>2000</t>
         </is>
       </c>
+      <c r="L162" s="58" t="n"/>
     </row>
     <row r="163">
       <c r="B163" t="n">
@@ -9019,6 +9062,7 @@
           <t>3000</t>
         </is>
       </c>
+      <c r="L163" s="58" t="n"/>
     </row>
     <row r="164">
       <c r="B164" t="n">
@@ -9029,6 +9073,7 @@
           <t>4000</t>
         </is>
       </c>
+      <c r="L164" s="58" t="n"/>
     </row>
     <row r="165">
       <c r="B165" t="n">
@@ -9039,6 +9084,7 @@
           <t>5000</t>
         </is>
       </c>
+      <c r="L165" s="58" t="n"/>
     </row>
     <row r="166">
       <c r="B166" t="n">
@@ -9049,6 +9095,7 @@
           <t>6000</t>
         </is>
       </c>
+      <c r="L166" s="58" t="n"/>
     </row>
     <row r="167">
       <c r="B167" t="n">
@@ -9059,6 +9106,7 @@
           <t>49000</t>
         </is>
       </c>
+      <c r="L167" s="58" t="n"/>
     </row>
     <row r="168">
       <c r="B168" t="n">
@@ -9069,6 +9117,7 @@
           <t>50000</t>
         </is>
       </c>
+      <c r="L168" s="58" t="n"/>
     </row>
     <row r="169">
       <c r="B169" t="n">
@@ -9079,6 +9128,7 @@
           <t>1000</t>
         </is>
       </c>
+      <c r="L169" s="58" t="n"/>
     </row>
     <row r="170">
       <c r="B170" t="n">
@@ -9089,6 +9139,7 @@
           <t>2000</t>
         </is>
       </c>
+      <c r="L170" s="58" t="n"/>
     </row>
     <row r="171">
       <c r="B171" t="n">
@@ -9099,6 +9150,7 @@
           <t>3000</t>
         </is>
       </c>
+      <c r="L171" s="58" t="n"/>
     </row>
     <row r="172">
       <c r="B172" t="n">
@@ -9109,6 +9161,7 @@
           <t>4000</t>
         </is>
       </c>
+      <c r="L172" s="58" t="n"/>
     </row>
     <row r="173">
       <c r="B173" t="n">
@@ -9119,6 +9172,7 @@
           <t>5000</t>
         </is>
       </c>
+      <c r="L173" s="58" t="n"/>
     </row>
     <row r="174">
       <c r="B174" t="n">
@@ -9129,6 +9183,7 @@
           <t>6000</t>
         </is>
       </c>
+      <c r="L174" s="58" t="n"/>
     </row>
     <row r="175">
       <c r="B175" t="n">
@@ -9139,6 +9194,7 @@
           <t>49000</t>
         </is>
       </c>
+      <c r="L175" s="58" t="n"/>
     </row>
     <row r="176">
       <c r="B176" t="n">
@@ -9149,6 +9205,7 @@
           <t>50000</t>
         </is>
       </c>
+      <c r="L176" s="58" t="n"/>
     </row>
     <row r="177">
       <c r="B177" t="n">
@@ -9159,6 +9216,7 @@
           <t>1000</t>
         </is>
       </c>
+      <c r="L177" s="58" t="n"/>
     </row>
     <row r="178">
       <c r="B178" t="n">
@@ -9169,6 +9227,7 @@
           <t>3000</t>
         </is>
       </c>
+      <c r="L178" s="58" t="n"/>
     </row>
     <row r="179">
       <c r="B179" t="n">
@@ -9179,6 +9238,7 @@
           <t>4000</t>
         </is>
       </c>
+      <c r="L179" s="58" t="n"/>
     </row>
     <row r="180">
       <c r="B180" t="n">
@@ -9189,6 +9249,7 @@
           <t>5000</t>
         </is>
       </c>
+      <c r="L180" s="58" t="n"/>
     </row>
     <row r="181">
       <c r="B181" t="n">
@@ -9199,6 +9260,7 @@
           <t>6000</t>
         </is>
       </c>
+      <c r="L181" s="58" t="n"/>
     </row>
     <row r="182">
       <c r="B182" t="n">
@@ -9214,6 +9276,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L182" s="58" t="n"/>
     </row>
     <row r="183">
       <c r="B183" t="n">
@@ -9229,6 +9292,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L183" s="58" t="n"/>
     </row>
     <row r="184">
       <c r="B184" t="n">
@@ -9244,6 +9308,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L184" s="58" t="n"/>
     </row>
     <row r="185">
       <c r="B185" t="n">
@@ -9259,6 +9324,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L185" s="58" t="n"/>
     </row>
     <row r="186">
       <c r="B186" t="n">
@@ -9274,6 +9340,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L186" s="58" t="n"/>
     </row>
     <row r="187">
       <c r="B187" t="n">
@@ -9294,6 +9361,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L187" s="58" t="n"/>
     </row>
     <row r="188">
       <c r="B188" t="n">
@@ -9314,6 +9382,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L188" s="58" t="n"/>
     </row>
     <row r="189">
       <c r="B189" t="n">
@@ -9334,6 +9403,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L189" s="58" t="n"/>
     </row>
     <row r="190">
       <c r="B190" t="n">
@@ -9354,6 +9424,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L190" s="58" t="n"/>
     </row>
     <row r="191">
       <c r="B191" t="n">
@@ -9374,6 +9445,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L191" s="58" t="n"/>
     </row>
     <row r="192">
       <c r="B192" t="n">
@@ -9394,6 +9466,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L192" s="58" t="n"/>
     </row>
     <row r="193">
       <c r="B193" t="n">
@@ -9414,6 +9487,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L193" s="58" t="n"/>
     </row>
     <row r="194">
       <c r="B194" t="n">
@@ -9434,6 +9508,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L194" s="58" t="n"/>
     </row>
     <row r="195">
       <c r="B195" t="n">
@@ -9454,6 +9529,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L195" s="58" t="n"/>
     </row>
     <row r="196">
       <c r="B196" t="n">
@@ -9474,6 +9550,7 @@
           <t>Volvo Truck</t>
         </is>
       </c>
+      <c r="L196" s="58" t="n"/>
     </row>
     <row r="197">
       <c r="B197" t="n">
@@ -9499,6 +9576,7 @@
           <t>Curitiba, Brazil</t>
         </is>
       </c>
+      <c r="L197" s="58" t="n"/>
     </row>
     <row r="198">
       <c r="B198" t="n">
@@ -9524,6 +9602,7 @@
           <t>Curitiba, Brazil</t>
         </is>
       </c>
+      <c r="L198" s="58" t="n"/>
     </row>
     <row r="199">
       <c r="B199" t="n">
@@ -9549,6 +9628,7 @@
           <t>Curitiba, Brazil</t>
         </is>
       </c>
+      <c r="L199" s="58" t="n"/>
     </row>
     <row r="200">
       <c r="B200" t="n">
@@ -9574,6 +9654,7 @@
           <t>Curitiba, Brazil</t>
         </is>
       </c>
+      <c r="L200" s="58" t="n"/>
     </row>
     <row r="201">
       <c r="B201" t="n">
@@ -9599,6 +9680,7 @@
           <t>Curitiba, Brazil</t>
         </is>
       </c>
+      <c r="L201" s="58" t="n"/>
     </row>
     <row r="202">
       <c r="B202" t="n">
@@ -9629,6 +9711,7 @@
           <t>VT Brazil V8567 OC</t>
         </is>
       </c>
+      <c r="L202" s="58" t="n"/>
     </row>
     <row r="203">
       <c r="B203" t="n">
@@ -9659,6 +9742,7 @@
           <t>VT Brazil V8567 OC</t>
         </is>
       </c>
+      <c r="L203" s="58" t="n"/>
     </row>
     <row r="204">
       <c r="B204" t="n">
@@ -9689,6 +9773,7 @@
           <t>VT Brazil V8567 OC</t>
         </is>
       </c>
+      <c r="L204" s="58" t="n"/>
     </row>
     <row r="205">
       <c r="B205" t="n">
@@ -9719,6 +9804,7 @@
           <t>VT Brazil V8567 OC</t>
         </is>
       </c>
+      <c r="L205" s="58" t="n"/>
     </row>
     <row r="206">
       <c r="B206" t="n">
@@ -9749,6 +9835,7 @@
           <t>VT Brazil V8567 OC</t>
         </is>
       </c>
+      <c r="L206" s="58" t="n"/>
     </row>
     <row r="207">
       <c r="B207" t="n">
@@ -9784,6 +9871,7 @@
           <t>ENSO7000</t>
         </is>
       </c>
+      <c r="L207" s="58" t="n"/>
     </row>
     <row r="208">
       <c r="B208" t="n">
@@ -9819,6 +9907,7 @@
           <t>ENSO7000</t>
         </is>
       </c>
+      <c r="L208" s="58" t="n"/>
     </row>
     <row r="209">
       <c r="B209" t="n">
@@ -9854,6 +9943,7 @@
           <t>ENSO7000</t>
         </is>
       </c>
+      <c r="L209" s="58" t="n"/>
     </row>
     <row r="210">
       <c r="B210" t="n">
@@ -9889,6 +9979,7 @@
           <t>ENSO7000</t>
         </is>
       </c>
+      <c r="L210" s="58" t="n"/>
     </row>
     <row r="211">
       <c r="B211" t="n">
@@ -9924,8 +10015,560 @@
           <t>ENSO7000</t>
         </is>
       </c>
+      <c r="L211" s="58" t="n"/>
+    </row>
+    <row r="212">
+      <c r="B212" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L212" s="58" t="n"/>
+    </row>
+    <row r="213">
+      <c r="B213" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L213" s="58" t="n"/>
+    </row>
+    <row r="214">
+      <c r="B214" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L214" s="58" t="n"/>
+    </row>
+    <row r="215">
+      <c r="B215" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L215" s="58" t="n"/>
+    </row>
+    <row r="216">
+      <c r="B216" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L216" s="58" t="n"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="57" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C217" s="57" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D217" s="57" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E217" s="57" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H217" s="57" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I217" s="57" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J217" s="57" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L217" s="58" t="n"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="57" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C218" s="57" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D218" s="57" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E218" s="57" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H218" s="57" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I218" s="57" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J218" s="57" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L218" s="58" t="n"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="57" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C219" s="57" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D219" s="57" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E219" s="57" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H219" s="57" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I219" s="57" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J219" s="57" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L219" s="58" t="n"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="57" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C220" s="57" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D220" s="57" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E220" s="57" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H220" s="57" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I220" s="57" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J220" s="57" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L220" s="58" t="n"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="57" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C221" s="57" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D221" s="57" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E221" s="57" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H221" s="57" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I221" s="57" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J221" s="57" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L221" s="58" t="n"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C222" s="58" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D222" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E222" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H222" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I222" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J222" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L222" s="58" t="n"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C223" s="58" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D223" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E223" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H223" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I223" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J223" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L223" s="58" t="n"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C224" s="58" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D224" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E224" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H224" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I224" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J224" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L224" s="58" t="n"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C225" s="58" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D225" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E225" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H225" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I225" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J225" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L225" s="58" t="n"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C226" s="58" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D226" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E226" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H226" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I226" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J226" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="L226" s="58" t="n"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L174 L175 L176 L177 L178 L179 L180 L181 L182 L183 L184 L185 L186 L187 L188 L189 L190 L191 L192 L193 L194 L195 L196 L197 L198 L199 L200 L201 L202 L203 L204 L205 L206 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L174 L175 L176 L177 L178 L179 L180 L181 L182 L183 L184 L185 L186 L187 L188 L189 L190 L191 L192 L193 L194 L195 L196 L197 L198 L199 L200 L201 L202 L203 L204 L205 L206 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L221" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L174 L175 L176 L177 L178 L179 L180 L181 L182 L183 L184 L185 L186 L187 L188 L189 L190 L191 L192 L193 L194 L195 L196 L197 L198 L199 L200 L201 L202 L203 L204 L205 L206 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L221 L222 L223 L224 L225 L226" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>

--- a/System_List_Example.xlsx
+++ b/System_List_Example.xlsx
@@ -1068,7 +1068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:T226"/>
+  <dimension ref="B1:T241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10557,8 +10557,583 @@
       </c>
       <c r="L226" s="58" t="n"/>
     </row>
+    <row r="227">
+      <c r="B227" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C227" s="58" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D227" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E227" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H227" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I227" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J227" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K227" s="58" t="inlineStr"/>
+      <c r="L227" s="58" t="n"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C228" s="58" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D228" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E228" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H228" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I228" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J228" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K228" s="58" t="inlineStr"/>
+      <c r="L228" s="58" t="n"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C229" s="58" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D229" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E229" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H229" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I229" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J229" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K229" s="58" t="inlineStr"/>
+      <c r="L229" s="58" t="n"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C230" s="58" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D230" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E230" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H230" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I230" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J230" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K230" s="58" t="inlineStr"/>
+      <c r="L230" s="58" t="n"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C231" s="58" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D231" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E231" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H231" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I231" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J231" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K231" s="58" t="inlineStr"/>
+      <c r="L231" s="58" t="n"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C232" s="58" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D232" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E232" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H232" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I232" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J232" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K232" s="58" t="inlineStr"/>
+      <c r="L232" s="58" t="n"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C233" s="58" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D233" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E233" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H233" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I233" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J233" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K233" s="58" t="inlineStr"/>
+      <c r="L233" s="58" t="n"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C234" s="58" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D234" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E234" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H234" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I234" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J234" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K234" s="58" t="inlineStr"/>
+      <c r="L234" s="58" t="n"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C235" s="58" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D235" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E235" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H235" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I235" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J235" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K235" s="58" t="inlineStr"/>
+      <c r="L235" s="58" t="n"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C236" s="58" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D236" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E236" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H236" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I236" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J236" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K236" s="58" t="inlineStr"/>
+      <c r="L236" s="58" t="n"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C237" s="58" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="D237" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E237" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H237" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I237" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J237" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K237" s="58" t="inlineStr">
+        <is>
+          <t>4.00.31</t>
+        </is>
+      </c>
+      <c r="L237" s="58" t="n"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C238" s="58" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="D238" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E238" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H238" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I238" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J238" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K238" s="58" t="inlineStr">
+        <is>
+          <t>4.00.31</t>
+        </is>
+      </c>
+      <c r="L238" s="58" t="n"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C239" s="58" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="D239" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E239" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H239" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I239" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J239" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K239" s="58" t="inlineStr">
+        <is>
+          <t>4.00.31</t>
+        </is>
+      </c>
+      <c r="L239" s="58" t="n"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C240" s="58" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="D240" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E240" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H240" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I240" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J240" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K240" s="58" t="inlineStr">
+        <is>
+          <t>4.00.31</t>
+        </is>
+      </c>
+      <c r="L240" s="58" t="n"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="58" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="C241" s="58" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="D241" s="58" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="E241" s="58" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="H241" s="58" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="I241" s="58" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="J241" s="58" t="inlineStr">
+        <is>
+          <t>ENSO7000</t>
+        </is>
+      </c>
+      <c r="K241" s="58" t="inlineStr">
+        <is>
+          <t>4.00.31</t>
+        </is>
+      </c>
+      <c r="L241" s="58" t="n"/>
+    </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="6">
     <dataValidation sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L174 L175 L176 L177 L178 L179 L180 L181 L182 L183 L184 L185 L186 L187 L188 L189 L190 L191 L192 L193 L194 L195 L196 L197 L198 L199 L200 L201 L202 L203 L204 L205 L206 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
     </dataValidation>
@@ -10566,6 +11141,15 @@
       <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
     </dataValidation>
     <dataValidation sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L174 L175 L176 L177 L178 L179 L180 L181 L182 L183 L184 L185 L186 L187 L188 L189 L190 L191 L192 L193 L194 L195 L196 L197 L198 L199 L200 L201 L202 L203 L204 L205 L206 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L221 L222 L223 L224 L225 L226" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L174 L175 L176 L177 L178 L179 L180 L181 L182 L183 L184 L185 L186 L187 L188 L189 L190 L191 L192 L193 L194 L195 L196 L197 L198 L199 L200 L201 L202 L203 L204 L205 L206 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L221 L222 L223 L224 L225 L226 L227 L228 L229 L230 L231" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L174 L175 L176 L177 L178 L179 L180 L181 L182 L183 L184 L185 L186 L187 L188 L189 L190 L191 L192 L193 L194 L195 L196 L197 L198 L199 L200 L201 L202 L203 L204 L205 L206 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L221 L222 L223 L224 L225 L226 L227 L228 L229 L230 L231 L232 L233 L234 L235 L236" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40 L41 L42 L43 L44 L45 L46 L47 L48 L49 L50 L51 L52 L53 L54 L55 L56 L57 L58 L59 L60 L61 L62 L63 L64 L65 L66 L67 L68 L69 L70 L71 L72 L73 L74 L75 L76 L77 L78 L79 L80 L81 L82 L83 L84 L85 L86 L87 L88 L89 L90 L91 L92 L93 L94 L95 L96 L97 L98 L99 L100 L101 L102 L103 L104 L105 L106 L107 L108 L109 L110 L111 L112 L113 L114 L115 L116 L117 L118 L119 L120 L121 L122 L123 L124 L125 L126 L127 L128 L129 L130 L131 L132 L133 L134 L135 L136 L137 L138 L139 L140 L141 L142 L143 L144 L145 L146 L147 L148 L149 L150 L151 L152 L153 L154 L155 L156 L157 L158 L159 L160 L161 L162 L163 L164 L165 L166 L167 L168 L169 L170 L171 L172 L173 L174 L175 L176 L177 L178 L179 L180 L181 L182 L183 L184 L185 L186 L187 L188 L189 L190 L191 L192 L193 L194 L195 L196 L197 L198 L199 L200 L201 L202 L203 L204 L205 L206 L207 L208 L209 L210 L211 L212 L213 L214 L215 L216 L217 L218 L219 L220 L221 L222 L223 L224 L225 L226 L227 L228 L229 L230 L231 L232 L233 L234 L235 L236 L237 L238 L239 L240 L241" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
     </dataValidation>
   </dataValidations>

--- a/System_List_Example.xlsx
+++ b/System_List_Example.xlsx
@@ -1,127 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\LicenseAutomation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6816F775-8E26-4ABF-A3DF-B338B145CE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$Q$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Overview'!$A$1:$X$7</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
-  <si>
-    <t>SAP Kommissinsnummer</t>
-  </si>
-  <si>
-    <t>SAP Position</t>
-  </si>
-  <si>
-    <t>Material-Nummer vom Schrank</t>
-  </si>
-  <si>
-    <t>Firma</t>
-  </si>
-  <si>
-    <t>Standort</t>
-  </si>
-  <si>
-    <t>Projekt</t>
-  </si>
-  <si>
-    <t>Steuerung</t>
-  </si>
-  <si>
-    <t>SW-Paket-Version</t>
-  </si>
-  <si>
-    <t>Komponente</t>
-  </si>
-  <si>
-    <t>Schnittstellen</t>
-  </si>
-  <si>
-    <t>Stationsname</t>
-  </si>
-  <si>
-    <t>IP-Adresse (Kundennetz)</t>
-  </si>
-  <si>
-    <t>MAC-Adersse 1</t>
-  </si>
-  <si>
-    <t>Lizenznummer (S/N)</t>
-  </si>
-  <si>
-    <t>Lizenz</t>
-  </si>
-  <si>
-    <t>Auslauf-Datum</t>
-  </si>
-  <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>ESC System Controller / 90905.E00012</t>
-  </si>
-  <si>
-    <t>Volvo Truck</t>
-  </si>
-  <si>
-    <t>Curitiba, Brazil</t>
-  </si>
-  <si>
-    <t>VT Brazil V8567 OC</t>
-  </si>
-  <si>
-    <t>ENSO7000</t>
-  </si>
-  <si>
-    <t>4.00.31</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -136,46 +47,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,161 +436,563 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="8" customWidth="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="38" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="20" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="12" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="26" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="21" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="16" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="11" customWidth="1" min="23" max="23"/>
+    <col width="14" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SAP Kommissinsnummer</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>SAP Position</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Material-Nummer vom Schrank</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Firma</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Standort</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Projekt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Steuerung</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>V3 – Board Linux Version</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>V3 – Board Firmware</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>V3 – Board Seriennummer</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>V3-Board: Hardware - Version</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Verwendeter IPC Typ</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Seriennummer IPC 1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Seriennummer V3-Board 1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Komponente</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Schnittstellen</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Stationsname</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IP-Adresse (Kundennetz)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MAC-Adersse 1</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Lizenznummer (S/N)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Lizenz</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Auslauf-Datum</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Kommentar</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Multiplicity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>R. Römmele</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Panel PC 15‘‘6</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>00492</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>003211</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+      <c r="V2" s="2" t="inlineStr"/>
+      <c r="W2" s="2" t="inlineStr"/>
+      <c r="X2" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>R. Römmele</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr"/>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Panel PC 15‘‘6</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>00492</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>003211</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="R3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr"/>
+      <c r="W3" s="2" t="inlineStr"/>
+      <c r="X3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>30029017</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>R. Römmele</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+      <c r="J4" s="2" t="inlineStr"/>
+      <c r="K4" s="2" t="inlineStr"/>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Panel PC 15‘‘6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>00492</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>003211</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
+      <c r="S4" s="2" t="inlineStr"/>
+      <c r="T4" s="2" t="inlineStr"/>
+      <c r="U4" s="2" t="inlineStr"/>
+      <c r="V4" s="2" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr"/>
+      <c r="X4" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>30029017</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>R. Römmele</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr"/>
+      <c r="K5" s="2" t="inlineStr"/>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Panel PC 15‘‘6</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>00492</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>003211</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="inlineStr"/>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="inlineStr"/>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr"/>
+      <c r="W5" s="2" t="inlineStr"/>
+      <c r="X5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>ESC System Controller / 90905.E00012</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>R. Römmele</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr"/>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>Panel PC 15‘‘6</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>00492</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>003211</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr"/>
+      <c r="X6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>30029017</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>50000</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Volvo Truck</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Curitiba, Brazil</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>VT Brazil V8567 OC</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>R. Römmele</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>Panel PC 15‘‘6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>00492</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>003211</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr"/>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr"/>
+      <c r="T7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
+      <c r="W7" s="2" t="inlineStr"/>
+      <c r="X7" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:X7"/>
   <dataValidations count="1">
-    <dataValidation type="list" showDropDown="1" sqref="I2:I3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation sqref="O2 O3 O4 O5 O6 O7" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"MQTT,OPC UA,IBM MQ"</formula1>
     </dataValidation>
   </dataValidations>
